--- a/data/trans_orig/IP07A26_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A26_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85DD5611-63CC-49E7-B155-D42ABA3E7A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2227CEE-C1B0-413F-B9B9-252E92FF181D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{9F53C3CF-1FDB-4891-9E87-0BB47A35C779}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{8997ED27-E2E9-43C6-84D5-13766075EAC6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,10 +65,283 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>Algunas veces</t>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
   </si>
   <si>
     <t>6,17%</t>
@@ -83,12 +356,6 @@
     <t>3,21%</t>
   </si>
   <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
     <t>4,96%</t>
   </si>
   <si>
@@ -98,39 +365,6 @@
     <t>7,91%</t>
   </si>
   <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
     <t>32,66%</t>
   </si>
   <si>
@@ -158,39 +392,6 @@
     <t>39,86%</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
     <t>55,52%</t>
   </si>
   <si>
@@ -218,129 +419,180 @@
     <t>62,27%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
     <t>10,44%</t>
   </si>
   <si>
@@ -365,24 +617,6 @@
     <t>10,12%</t>
   </si>
   <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
     <t>31,83%</t>
   </si>
   <si>
@@ -410,24 +644,6 @@
     <t>37,47%</t>
   </si>
   <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
     <t>53,75%</t>
   </si>
   <si>
@@ -455,220 +671,55 @@
     <t>65,33%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
   </si>
   <si>
     <t>6,45%</t>
@@ -695,30 +746,6 @@
     <t>6,4%</t>
   </si>
   <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
     <t>33,94%</t>
   </si>
   <si>
@@ -744,33 +771,6 @@
   </si>
   <si>
     <t>37,38%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
   </si>
   <si>
     <t>54,37%</t>
@@ -1189,7 +1189,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC379214-9BDB-4DE4-8E64-C2823E1C9E2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83A2DC7-896A-464D-B828-12DA4380C91F}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1307,10 +1307,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>9121</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1322,55 +1322,55 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>3283</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>16</v>
-      </c>
-      <c r="N4" s="7">
-        <v>12404</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>3532</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -1379,181 +1379,181 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>3532</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>48315</v>
+        <v>636</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>36030</v>
+        <v>835</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>104</v>
+        <v>2</v>
       </c>
       <c r="N6" s="7">
-        <v>84346</v>
+        <v>1472</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>4823</v>
+        <v>2013</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>1917</v>
+        <v>3289</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="M7" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N7" s="7">
-        <v>6740</v>
+        <v>5302</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C8" s="7">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="D8" s="7">
-        <v>82136</v>
+        <v>3905</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H8" s="7">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="I8" s="7">
-        <v>61008</v>
+        <v>5643</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="M8" s="7">
-        <v>181</v>
+        <v>15</v>
       </c>
       <c r="N8" s="7">
-        <v>143145</v>
+        <v>9548</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1562,108 +1562,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>175</v>
+        <v>9</v>
       </c>
       <c r="D9" s="7">
-        <v>147928</v>
+        <v>6555</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="H9" s="7">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="I9" s="7">
-        <v>102239</v>
+        <v>9768</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="M9" s="7">
-        <v>311</v>
+        <v>25</v>
       </c>
       <c r="N9" s="7">
-        <v>250167</v>
+        <v>16322</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>4</v>
+      </c>
+      <c r="D10" s="7">
+        <v>5371</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="7">
+        <v>2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1463</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" s="7">
         <v>6</v>
       </c>
-      <c r="D10" s="7">
-        <v>5704</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>568</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M10" s="7">
-        <v>7</v>
-      </c>
       <c r="N10" s="7">
-        <v>6273</v>
+        <v>6834</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -1672,13 +1672,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -1687,13 +1687,13 @@
         <v>564</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -1702,121 +1702,121 @@
         <v>564</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D12" s="7">
-        <v>27595</v>
+        <v>5704</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="H12" s="7">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>12705</v>
+        <v>568</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="M12" s="7">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="N12" s="7">
-        <v>40301</v>
+        <v>6273</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D13" s="7">
-        <v>5371</v>
+        <v>27595</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="I13" s="7">
-        <v>1463</v>
+        <v>12705</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="N13" s="7">
-        <v>6834</v>
+        <v>40301</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C14" s="7">
         <v>39</v>
@@ -1825,13 +1825,13 @@
         <v>30195</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>51</v>
@@ -1840,13 +1840,13 @@
         <v>36298</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>90</v>
@@ -1855,13 +1855,13 @@
         <v>66493</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1876,13 +1876,13 @@
         <v>68866</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="H15" s="7">
         <v>73</v>
@@ -1891,13 +1891,13 @@
         <v>51598</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="M15" s="7">
         <v>150</v>
@@ -1906,87 +1906,87 @@
         <v>120464</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>9712</v>
+        <v>4823</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="H16" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>2779</v>
+        <v>1917</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="N16" s="7">
-        <v>12491</v>
+        <v>6740</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>2110</v>
+        <v>3532</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1995,181 +1995,181 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
       </c>
       <c r="N17" s="7">
-        <v>2110</v>
+        <v>3532</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="D18" s="7">
-        <v>29596</v>
+        <v>9121</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="H18" s="7">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="I18" s="7">
-        <v>31527</v>
+        <v>3283</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="N18" s="7">
-        <v>61122</v>
+        <v>12404</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="D19" s="7">
-        <v>1590</v>
+        <v>48315</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="H19" s="7">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="I19" s="7">
-        <v>1832</v>
+        <v>36030</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="M19" s="7">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="N19" s="7">
-        <v>3422</v>
+        <v>84346</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C20" s="7">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="D20" s="7">
-        <v>49979</v>
+        <v>82136</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="H20" s="7">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I20" s="7">
-        <v>63053</v>
+        <v>61008</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="M20" s="7">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="N20" s="7">
-        <v>113032</v>
+        <v>143145</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2178,306 +2178,306 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c r="D21" s="7">
-        <v>92986</v>
+        <v>147928</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="H21" s="7">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="I21" s="7">
-        <v>99190</v>
+        <v>102239</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="M21" s="7">
-        <v>248</v>
+        <v>311</v>
       </c>
       <c r="N21" s="7">
-        <v>192176</v>
+        <v>250167</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D22" s="7">
-        <v>636</v>
+        <v>3718</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I22" s="7">
-        <v>835</v>
+        <v>2347</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="M22" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N22" s="7">
-        <v>1472</v>
+        <v>6065</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>24</v>
+        <v>135</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>816</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>2481</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>24</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>3297</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
         <v>3</v>
       </c>
       <c r="D24" s="7">
-        <v>2013</v>
+        <v>1794</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H24" s="7">
+        <v>6</v>
+      </c>
+      <c r="I24" s="7">
+        <v>3231</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="H24" s="7">
-        <v>5</v>
-      </c>
-      <c r="I24" s="7">
-        <v>3289</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>9</v>
+      </c>
+      <c r="N24" s="7">
+        <v>5025</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="M24" s="7">
-        <v>8</v>
-      </c>
-      <c r="N24" s="7">
-        <v>5302</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>34452</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>24</v>
+        <v>154</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>25</v>
+        <v>155</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>34688</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>24</v>
+        <v>157</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>69140</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>24</v>
+        <v>160</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>25</v>
+        <v>161</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C26" s="7">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="D26" s="7">
-        <v>3905</v>
+        <v>61207</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="H26" s="7">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="I26" s="7">
-        <v>5643</v>
+        <v>54897</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="M26" s="7">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="N26" s="7">
-        <v>9548</v>
+        <v>116103</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2486,183 +2486,183 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="D27" s="7">
-        <v>6555</v>
+        <v>101987</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="H27" s="7">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="I27" s="7">
-        <v>9768</v>
+        <v>97643</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="M27" s="7">
-        <v>25</v>
+        <v>229</v>
       </c>
       <c r="N27" s="7">
-        <v>16322</v>
+        <v>199630</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>1</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1590</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H28" s="7">
+        <v>2</v>
+      </c>
+      <c r="I28" s="7">
+        <v>1832</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="M28" s="7">
         <v>3</v>
       </c>
-      <c r="D28" s="7">
-        <v>1794</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="H28" s="7">
-        <v>6</v>
-      </c>
-      <c r="I28" s="7">
-        <v>3231</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="M28" s="7">
-        <v>9</v>
-      </c>
       <c r="N28" s="7">
-        <v>5025</v>
+        <v>3422</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>174</v>
+        <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29" s="7">
-        <v>816</v>
+        <v>2110</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>24</v>
+        <v>180</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="M29" s="7">
         <v>3</v>
       </c>
-      <c r="I29" s="7">
-        <v>2481</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="M29" s="7">
-        <v>4</v>
-      </c>
       <c r="N29" s="7">
-        <v>3297</v>
+        <v>2110</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>181</v>
+        <v>62</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D30" s="7">
-        <v>34452</v>
+        <v>9712</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H30" s="7">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="I30" s="7">
-        <v>34688</v>
+        <v>2779</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>187</v>
+        <v>103</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>188</v>
@@ -2671,10 +2671,10 @@
         <v>189</v>
       </c>
       <c r="M30" s="7">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="N30" s="7">
-        <v>69140</v>
+        <v>12491</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>190</v>
@@ -2689,13 +2689,13 @@
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C31" s="7">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="D31" s="7">
-        <v>3718</v>
+        <v>29596</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>193</v>
@@ -2707,10 +2707,10 @@
         <v>195</v>
       </c>
       <c r="H31" s="7">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="I31" s="7">
-        <v>2347</v>
+        <v>31527</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>196</v>
@@ -2722,10 +2722,10 @@
         <v>198</v>
       </c>
       <c r="M31" s="7">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="N31" s="7">
-        <v>6065</v>
+        <v>61122</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>199</v>
@@ -2740,13 +2740,13 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C32" s="7">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D32" s="7">
-        <v>61207</v>
+        <v>49979</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>202</v>
@@ -2758,10 +2758,10 @@
         <v>204</v>
       </c>
       <c r="H32" s="7">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="I32" s="7">
-        <v>54897</v>
+        <v>63053</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>205</v>
@@ -2773,10 +2773,10 @@
         <v>207</v>
       </c>
       <c r="M32" s="7">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="N32" s="7">
-        <v>116103</v>
+        <v>113032</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>208</v>
@@ -2794,49 +2794,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D33" s="7">
-        <v>101987</v>
+        <v>92986</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="H33" s="7">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I33" s="7">
-        <v>97643</v>
+        <v>99190</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="M33" s="7">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="N33" s="7">
-        <v>199630</v>
+        <v>192176</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2847,55 +2847,55 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D34" s="7">
-        <v>26968</v>
+        <v>15502</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>211</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H34" s="7">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I34" s="7">
-        <v>10697</v>
+        <v>7559</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M34" s="7">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="N34" s="7">
-        <v>37665</v>
+        <v>23061</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
         <v>7</v>
@@ -2904,13 +2904,13 @@
         <v>6457</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H35" s="7">
         <v>4</v>
@@ -2919,13 +2919,13 @@
         <v>3045</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M35" s="7">
         <v>11</v>
@@ -2934,40 +2934,40 @@
         <v>9502</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
-        <v>160</v>
+        <v>33</v>
       </c>
       <c r="D36" s="7">
-        <v>141972</v>
+        <v>26968</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>228</v>
+        <v>144</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>229</v>
       </c>
       <c r="H36" s="7">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="I36" s="7">
-        <v>118239</v>
+        <v>10697</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>230</v>
@@ -2979,10 +2979,10 @@
         <v>232</v>
       </c>
       <c r="M36" s="7">
-        <v>311</v>
+        <v>50</v>
       </c>
       <c r="N36" s="7">
-        <v>260211</v>
+        <v>37665</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>233</v>
@@ -2997,13 +2997,13 @@
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C37" s="7">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="D37" s="7">
-        <v>15502</v>
+        <v>141972</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>236</v>
@@ -3015,10 +3015,10 @@
         <v>238</v>
       </c>
       <c r="H37" s="7">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="I37" s="7">
-        <v>7559</v>
+        <v>118239</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>239</v>
@@ -3030,10 +3030,10 @@
         <v>241</v>
       </c>
       <c r="M37" s="7">
-        <v>23</v>
+        <v>311</v>
       </c>
       <c r="N37" s="7">
-        <v>23061</v>
+        <v>260211</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>242</v>
@@ -3048,7 +3048,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C38" s="7">
         <v>275</v>
@@ -3108,13 +3108,13 @@
         <v>418322</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="H39" s="7">
         <v>475</v>
@@ -3123,13 +3123,13 @@
         <v>360438</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="M39" s="7">
         <v>963</v>
@@ -3138,13 +3138,13 @@
         <v>778760</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A26_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A26_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2227CEE-C1B0-413F-B9B9-252E92FF181D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A50865A-2C74-4040-9692-8B2915E5A7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{8997ED27-E2E9-43C6-84D5-13766075EAC6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D3E8FC45-EEB8-4125-83EF-3E1B89031D0E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="255">
   <si>
     <t>Menores según frecuencia de poder prestar atención en 2023 (Tasa respuesta: 50,16%)</t>
   </si>
@@ -68,736 +68,739 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
     <t>7,8%</t>
   </si>
   <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
   </si>
   <si>
     <t>2,83%</t>
   </si>
   <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
     <t>9,04%</t>
   </si>
   <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
   </si>
   <si>
     <t>3,71%</t>
   </si>
   <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
   </si>
   <si>
     <t>2,1%</t>
   </si>
   <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
   </si>
   <si>
     <t>2,96%</t>
   </si>
   <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -808,7 +811,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -904,39 +907,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -988,7 +991,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1099,13 +1102,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1114,6 +1110,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1178,19 +1181,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83A2DC7-896A-464D-B828-12DA4380C91F}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450EF8F0-B105-4ACA-9E79-08BEBB143A34}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1307,10 +1330,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>3905</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1322,91 +1345,91 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>5643</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>9548</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>2013</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>3289</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>5302</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -1415,13 +1438,13 @@
         <v>636</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -1430,13 +1453,13 @@
         <v>835</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -1445,115 +1468,115 @@
         <v>1472</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>2013</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>3289</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="M7" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>5302</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C8" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>3905</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H8" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>5643</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>39</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M8" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>9548</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1615,10 +1638,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D10" s="7">
-        <v>5371</v>
+        <v>30195</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>46</v>
@@ -1630,91 +1653,91 @@
         <v>48</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="I10" s="7">
-        <v>1463</v>
+        <v>36298</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>49</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M10" s="7">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="N10" s="7">
-        <v>6834</v>
+        <v>66493</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>27595</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="I11" s="7">
-        <v>564</v>
+        <v>12705</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="N11" s="7">
-        <v>564</v>
+        <v>40301</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>6</v>
@@ -1723,13 +1746,13 @@
         <v>5704</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -1738,13 +1761,13 @@
         <v>568</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -1753,106 +1776,106 @@
         <v>6273</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>27595</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>12705</v>
+        <v>564</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>40301</v>
+        <v>564</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C14" s="7">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="D14" s="7">
-        <v>30195</v>
+        <v>5371</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>36298</v>
+        <v>1463</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>81</v>
       </c>
       <c r="M14" s="7">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="N14" s="7">
-        <v>66493</v>
+        <v>6834</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>82</v>
@@ -1923,10 +1946,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="D16" s="7">
-        <v>4823</v>
+        <v>82136</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>86</v>
@@ -1938,10 +1961,10 @@
         <v>88</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="I16" s="7">
-        <v>1917</v>
+        <v>61008</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>89</v>
@@ -1953,10 +1976,10 @@
         <v>91</v>
       </c>
       <c r="M16" s="7">
-        <v>7</v>
+        <v>181</v>
       </c>
       <c r="N16" s="7">
-        <v>6740</v>
+        <v>143145</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>92</v>
@@ -1971,13 +1994,13 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="D17" s="7">
-        <v>3532</v>
+        <v>48315</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>95</v>
@@ -1989,40 +2012,40 @@
         <v>97</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>36030</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="N17" s="7">
-        <v>3532</v>
+        <v>84346</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>11</v>
@@ -2031,13 +2054,13 @@
         <v>9121</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -2046,13 +2069,13 @@
         <v>3283</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="M18" s="7">
         <v>16</v>
@@ -2061,109 +2084,109 @@
         <v>12404</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>48315</v>
+        <v>3532</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H19" s="7">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>36030</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M19" s="7">
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>84346</v>
+        <v>3532</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C20" s="7">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="D20" s="7">
-        <v>82136</v>
+        <v>4823</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H20" s="7">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="I20" s="7">
-        <v>61008</v>
+        <v>1917</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M20" s="7">
-        <v>181</v>
+        <v>7</v>
       </c>
       <c r="N20" s="7">
-        <v>143145</v>
+        <v>6740</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>125</v>
@@ -2231,10 +2254,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="D22" s="7">
-        <v>3718</v>
+        <v>61207</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>128</v>
@@ -2246,10 +2269,10 @@
         <v>130</v>
       </c>
       <c r="H22" s="7">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="I22" s="7">
-        <v>2347</v>
+        <v>54897</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>131</v>
@@ -2261,10 +2284,10 @@
         <v>133</v>
       </c>
       <c r="M22" s="7">
-        <v>7</v>
+        <v>136</v>
       </c>
       <c r="N22" s="7">
-        <v>6065</v>
+        <v>116103</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>134</v>
@@ -2279,58 +2302,58 @@
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D23" s="7">
-        <v>816</v>
+        <v>34452</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>137</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H23" s="7">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="I23" s="7">
-        <v>2481</v>
+        <v>34688</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M23" s="7">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="N23" s="7">
-        <v>3297</v>
+        <v>69140</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>3</v>
@@ -2339,13 +2362,13 @@
         <v>1794</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -2354,13 +2377,13 @@
         <v>3231</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M24" s="7">
         <v>9</v>
@@ -2369,40 +2392,40 @@
         <v>5025</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>34452</v>
+        <v>816</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>155</v>
+        <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>156</v>
       </c>
       <c r="H25" s="7">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="I25" s="7">
-        <v>34688</v>
+        <v>2481</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>157</v>
@@ -2414,10 +2437,10 @@
         <v>159</v>
       </c>
       <c r="M25" s="7">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="N25" s="7">
-        <v>69140</v>
+        <v>3297</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>160</v>
@@ -2432,13 +2455,13 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C26" s="7">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="D26" s="7">
-        <v>61207</v>
+        <v>3718</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>163</v>
@@ -2450,10 +2473,10 @@
         <v>165</v>
       </c>
       <c r="H26" s="7">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="I26" s="7">
-        <v>54897</v>
+        <v>2347</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>166</v>
@@ -2465,10 +2488,10 @@
         <v>168</v>
       </c>
       <c r="M26" s="7">
-        <v>136</v>
+        <v>7</v>
       </c>
       <c r="N26" s="7">
-        <v>116103</v>
+        <v>6065</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>169</v>
@@ -2539,106 +2562,106 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="D28" s="7">
-        <v>1590</v>
+        <v>49979</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>173</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H28" s="7">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="I28" s="7">
-        <v>1832</v>
+        <v>63053</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M28" s="7">
-        <v>3</v>
+        <v>146</v>
       </c>
       <c r="N28" s="7">
-        <v>3422</v>
+        <v>113032</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="D29" s="7">
-        <v>2110</v>
+        <v>29596</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H29" s="7">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="I29" s="7">
-        <v>0</v>
+        <v>31527</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>11</v>
+        <v>185</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="M29" s="7">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="N29" s="7">
-        <v>2110</v>
+        <v>61122</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>62</v>
+        <v>188</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>12</v>
@@ -2647,13 +2670,13 @@
         <v>9712</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -2662,13 +2685,13 @@
         <v>2779</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="M30" s="7">
         <v>16</v>
@@ -2677,115 +2700,115 @@
         <v>12491</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C31" s="7">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="D31" s="7">
-        <v>29596</v>
+        <v>2110</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="H31" s="7">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>31527</v>
+        <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>196</v>
+        <v>32</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>197</v>
+        <v>39</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M31" s="7">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="N31" s="7">
-        <v>61122</v>
+        <v>2110</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>199</v>
+        <v>67</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C32" s="7">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>49979</v>
+        <v>1590</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>203</v>
+        <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H32" s="7">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="I32" s="7">
-        <v>63053</v>
+        <v>1832</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>206</v>
+        <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M32" s="7">
-        <v>146</v>
+        <v>3</v>
       </c>
       <c r="N32" s="7">
-        <v>113032</v>
+        <v>3422</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2847,106 +2870,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>13</v>
+        <v>275</v>
       </c>
       <c r="D34" s="7">
-        <v>15502</v>
+        <v>227423</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H34" s="7">
-        <v>10</v>
+        <v>293</v>
       </c>
       <c r="I34" s="7">
-        <v>7559</v>
+        <v>220899</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M34" s="7">
-        <v>23</v>
+        <v>568</v>
       </c>
       <c r="N34" s="7">
-        <v>23061</v>
+        <v>448321</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="D35" s="7">
-        <v>6457</v>
+        <v>141972</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H35" s="7">
-        <v>4</v>
+        <v>151</v>
       </c>
       <c r="I35" s="7">
-        <v>3045</v>
+        <v>118239</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M35" s="7">
-        <v>11</v>
+        <v>311</v>
       </c>
       <c r="N35" s="7">
-        <v>9502</v>
+        <v>260211</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>33</v>
@@ -2955,13 +2978,13 @@
         <v>26968</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>144</v>
+        <v>231</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H36" s="7">
         <v>17</v>
@@ -2970,13 +2993,13 @@
         <v>10697</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>231</v>
+        <v>146</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M36" s="7">
         <v>50</v>
@@ -2985,58 +3008,58 @@
         <v>37665</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C37" s="7">
-        <v>160</v>
+        <v>7</v>
       </c>
       <c r="D37" s="7">
-        <v>141972</v>
+        <v>6457</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H37" s="7">
-        <v>151</v>
+        <v>4</v>
       </c>
       <c r="I37" s="7">
-        <v>118239</v>
+        <v>3045</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>241</v>
+        <v>76</v>
       </c>
       <c r="M37" s="7">
-        <v>311</v>
+        <v>11</v>
       </c>
       <c r="N37" s="7">
-        <v>260211</v>
+        <v>9502</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>242</v>
+        <v>150</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>243</v>
@@ -3048,13 +3071,13 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C38" s="7">
-        <v>275</v>
+        <v>13</v>
       </c>
       <c r="D38" s="7">
-        <v>227423</v>
+        <v>15502</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>245</v>
@@ -3066,10 +3089,10 @@
         <v>247</v>
       </c>
       <c r="H38" s="7">
-        <v>293</v>
+        <v>10</v>
       </c>
       <c r="I38" s="7">
-        <v>220899</v>
+        <v>7559</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>248</v>
@@ -3081,10 +3104,10 @@
         <v>250</v>
       </c>
       <c r="M38" s="7">
-        <v>568</v>
+        <v>23</v>
       </c>
       <c r="N38" s="7">
-        <v>448321</v>
+        <v>23061</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>251</v>
@@ -3145,6 +3168,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A26_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A26_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A50865A-2C74-4040-9692-8B2915E5A7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30822843-B167-41F9-BD07-A870D8AC8157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D3E8FC45-EEB8-4125-83EF-3E1B89031D0E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{86EA9F35-EC5B-49A0-902F-FCA77AAA793A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="253">
   <si>
     <t>Menores según frecuencia de poder prestar atención en 2023 (Tasa respuesta: 50,16%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -74,28 +74,28 @@
     <t>59,58%</t>
   </si>
   <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
   </si>
   <si>
     <t>57,77%</t>
   </si>
   <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
   </si>
   <si>
     <t>58,5%</t>
   </si>
   <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -104,28 +104,28 @@
     <t>30,72%</t>
   </si>
   <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
   </si>
   <si>
     <t>33,67%</t>
   </si>
   <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
   </si>
   <si>
     <t>32,49%</t>
   </si>
   <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -137,19 +137,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>43,65%</t>
+    <t>47,33%</t>
   </si>
   <si>
     <t>8,55%</t>
   </si>
   <si>
-    <t>38,3%</t>
+    <t>41,16%</t>
   </si>
   <si>
     <t>9,02%</t>
   </si>
   <si>
-    <t>27,31%</t>
+    <t>29,98%</t>
   </si>
   <si>
     <t>Casi nunca</t>
@@ -173,52 +173,52 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>43,85%</t>
   </si>
   <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
   </si>
   <si>
     <t>70,35%</t>
   </si>
   <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
   </si>
   <si>
     <t>55,2%</t>
   </si>
   <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>63,66%</t>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
   </si>
   <si>
     <t>40,07%</t>
   </si>
   <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
   </si>
   <si>
     <t>24,62%</t>
   </si>
   <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
   </si>
   <si>
     <t>33,45%</t>
@@ -227,22 +227,22 @@
     <t>25,56%</t>
   </si>
   <si>
-    <t>47,11%</t>
+    <t>46,22%</t>
   </si>
   <si>
     <t>8,28%</t>
   </si>
   <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
   </si>
   <si>
     <t>1,1%</t>
   </si>
   <si>
-    <t>5,35%</t>
+    <t>5,89%</t>
   </si>
   <si>
     <t>5,21%</t>
@@ -251,7 +251,7 @@
     <t>2,08%</t>
   </si>
   <si>
-    <t>12,35%</t>
+    <t>11,14%</t>
   </si>
   <si>
     <t>2,46%</t>
@@ -260,544 +260,538 @@
     <t>1,09%</t>
   </si>
   <si>
-    <t>7,74%</t>
+    <t>6,01%</t>
   </si>
   <si>
     <t>0,47%</t>
   </si>
   <si>
-    <t>2,25%</t>
-  </si>
-  <si>
     <t>7,8%</t>
   </si>
   <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
   </si>
   <si>
     <t>2,83%</t>
   </si>
   <si>
-    <t>9,52%</t>
+    <t>10,55%</t>
   </si>
   <si>
     <t>5,67%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>55,52%</t>
   </si>
   <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
   </si>
   <si>
     <t>59,67%</t>
   </si>
   <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
   </si>
   <si>
     <t>57,22%</t>
   </si>
   <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
   </si>
   <si>
     <t>32,66%</t>
   </si>
   <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
   </si>
   <si>
     <t>35,24%</t>
   </si>
   <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
   </si>
   <si>
     <t>33,72%</t>
   </si>
   <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
   </si>
   <si>
     <t>6,17%</t>
   </si>
   <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
     <t>2,8%</t>
   </si>
   <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
   </si>
   <si>
     <t>1,22%</t>
   </si>
   <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
     <t>0,65%</t>
   </si>
   <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
+    <t>2,36%</t>
   </si>
   <si>
     <t>3,71%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
   </si>
   <si>
     <t>2,1%</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
   </si>
   <si>
     <t>2,96%</t>
   </si>
   <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1212,7 +1206,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450EF8F0-B105-4ACA-9E79-08BEBB143A34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D97F3E-4D13-4385-B25C-9D9A1CF692FE}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1833,7 +1827,7 @@
         <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1848,13 +1842,13 @@
         <v>5371</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -1863,13 +1857,13 @@
         <v>1463</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -1878,13 +1872,13 @@
         <v>6834</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1940,7 +1934,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1952,13 +1946,13 @@
         <v>82136</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H16" s="7">
         <v>79</v>
@@ -1967,13 +1961,13 @@
         <v>61008</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>181</v>
@@ -1982,13 +1976,13 @@
         <v>143145</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2003,13 +1997,13 @@
         <v>48315</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>49</v>
@@ -2018,13 +2012,13 @@
         <v>36030</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>104</v>
@@ -2033,13 +2027,13 @@
         <v>84346</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2054,13 +2048,13 @@
         <v>9121</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -2087,10 +2081,10 @@
         <v>109</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2105,13 +2099,13 @@
         <v>3532</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2126,7 +2120,7 @@
         <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -2135,13 +2129,13 @@
         <v>3532</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2156,13 +2150,13 @@
         <v>4823</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -2171,13 +2165,13 @@
         <v>1917</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -2186,13 +2180,13 @@
         <v>6740</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2248,7 +2242,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2260,13 +2254,13 @@
         <v>61207</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H22" s="7">
         <v>71</v>
@@ -2275,13 +2269,13 @@
         <v>54897</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M22" s="7">
         <v>136</v>
@@ -2290,13 +2284,13 @@
         <v>116103</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2311,13 +2305,13 @@
         <v>34452</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H23" s="7">
         <v>36</v>
@@ -2326,13 +2320,13 @@
         <v>34688</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M23" s="7">
         <v>73</v>
@@ -2341,13 +2335,13 @@
         <v>69140</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2362,13 +2356,13 @@
         <v>1794</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -2377,13 +2371,13 @@
         <v>3231</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M24" s="7">
         <v>9</v>
@@ -2392,13 +2386,13 @@
         <v>5025</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2413,13 +2407,13 @@
         <v>816</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -2428,13 +2422,13 @@
         <v>2481</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -2443,13 +2437,13 @@
         <v>3297</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>161</v>
+        <v>75</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2464,13 +2458,13 @@
         <v>3718</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -2479,13 +2473,13 @@
         <v>2347</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -2494,13 +2488,13 @@
         <v>6065</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2556,7 +2550,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2568,13 +2562,13 @@
         <v>49979</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H28" s="7">
         <v>82</v>
@@ -2583,13 +2577,13 @@
         <v>63053</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M28" s="7">
         <v>146</v>
@@ -2598,13 +2592,13 @@
         <v>113032</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2619,13 +2613,13 @@
         <v>29596</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H29" s="7">
         <v>43</v>
@@ -2634,13 +2628,13 @@
         <v>31527</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M29" s="7">
         <v>80</v>
@@ -2649,13 +2643,13 @@
         <v>61122</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2670,13 +2664,13 @@
         <v>9712</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -2685,13 +2679,13 @@
         <v>2779</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>105</v>
+        <v>190</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M30" s="7">
         <v>16</v>
@@ -2700,13 +2694,13 @@
         <v>12491</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2721,13 +2715,13 @@
         <v>2110</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2742,7 +2736,7 @@
         <v>39</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M31" s="7">
         <v>3</v>
@@ -2754,10 +2748,10 @@
         <v>67</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2772,13 +2766,13 @@
         <v>1590</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -2787,13 +2781,13 @@
         <v>1832</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -2802,13 +2796,13 @@
         <v>3422</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2876,13 +2870,13 @@
         <v>227423</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H34" s="7">
         <v>293</v>
@@ -2891,13 +2885,13 @@
         <v>220899</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="M34" s="7">
         <v>568</v>
@@ -2906,13 +2900,13 @@
         <v>448321</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2927,13 +2921,13 @@
         <v>141972</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H35" s="7">
         <v>151</v>
@@ -2942,13 +2936,13 @@
         <v>118239</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M35" s="7">
         <v>311</v>
@@ -2957,13 +2951,13 @@
         <v>260211</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2978,13 +2972,13 @@
         <v>26968</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="H36" s="7">
         <v>17</v>
@@ -2993,13 +2987,13 @@
         <v>10697</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>146</v>
+        <v>229</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M36" s="7">
         <v>50</v>
@@ -3008,13 +3002,13 @@
         <v>37665</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3029,13 +3023,13 @@
         <v>6457</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H37" s="7">
         <v>4</v>
@@ -3044,13 +3038,13 @@
         <v>3045</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>76</v>
+        <v>239</v>
       </c>
       <c r="M37" s="7">
         <v>11</v>
@@ -3059,13 +3053,13 @@
         <v>9502</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3080,13 +3074,13 @@
         <v>15502</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H38" s="7">
         <v>10</v>
@@ -3095,13 +3089,13 @@
         <v>7559</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M38" s="7">
         <v>23</v>
@@ -3110,13 +3104,13 @@
         <v>23061</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,7 +3166,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
